--- a/data/trans_camb/P42C_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Clase-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.42240276185269</v>
+        <v>-16.90423358926754</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.08489589029343</v>
+        <v>-5.894688838253338</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.8287358396605937</v>
+        <v>-0.2571944622148695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.08411122122095</v>
+        <v>11.21226936455101</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3826989788967323</v>
+        <v>-0.360857926828889</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1253570459781919</v>
+        <v>-0.1214884498448832</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.02187165886220207</v>
+        <v>-0.007815184019077595</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2994806015258173</v>
+        <v>0.2901503061630764</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-22.08557080227935</v>
+        <v>-22.00458428265075</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.868851530369752</v>
+        <v>-7.322695437118012</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.032178227593525</v>
+        <v>-6.140140431925431</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.55896414342876</v>
+        <v>10.07921762352747</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4800350424452552</v>
+        <v>-0.4784262100222703</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1477401154061861</v>
+        <v>-0.1560197338800605</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1605413061718288</v>
+        <v>-0.1671823583297119</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2585368188216105</v>
+        <v>0.2797248525070425</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-24.15890723713395</v>
+        <v>-23.23135922554044</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.84848697818452</v>
+        <v>-13.07014972052636</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-7.521706448539916</v>
+        <v>-6.083166397127149</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.503159370359706</v>
+        <v>5.344834375786482</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7761232742370264</v>
+        <v>-0.7585514620534171</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.433623132807507</v>
+        <v>-0.4245944903137365</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3227669371238952</v>
+        <v>-0.2589813535774966</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2408549911277076</v>
+        <v>0.2491160343151686</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-7.612585404262576</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-1.208677046898404</v>
+        <v>-1.208677046898407</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.47465310090108</v>
+        <v>-12.25742243089978</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.079399830439729</v>
+        <v>-6.01433409354102</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.465798755971553</v>
+        <v>-3.172433576632542</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.967505522989327</v>
+        <v>3.482513770267873</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.3473795134686556</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.05515467113934751</v>
+        <v>-0.05515467113934763</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5033058911866947</v>
+        <v>-0.4964779738805223</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2487128002285906</v>
+        <v>-0.2463908695624111</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.171553013971681</v>
+        <v>-0.162714460427854</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2094745712724818</v>
+        <v>0.1683418116554206</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-9.099814024257213</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-3.997612324007567</v>
+        <v>-3.997612324007568</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.97540445471618</v>
+        <v>-12.90914103420554</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.818756644131601</v>
+        <v>-7.990645782141284</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.42542789398362</v>
+        <v>-5.249972563059016</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4265781146042957</v>
+        <v>0.1844393702427173</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.5830100979106655</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2561204378700231</v>
+        <v>-0.2561204378700232</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7190082130858771</v>
+        <v>-0.7178750812736703</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4453083973335534</v>
+        <v>-0.4417009346272367</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3944921829688747</v>
+        <v>-0.3883786590561183</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.03358410067066608</v>
+        <v>0.01535330966825313</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.58830889332038</v>
+        <v>-10.57456624029184</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.874897900966133</v>
+        <v>-8.290934896160959</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-2.839582463341204</v>
+        <v>-3.047953194565454</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.2341964362208448</v>
+        <v>0.478909575518888</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5308419406254853</v>
+        <v>-0.5363473534893</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4050235725569548</v>
+        <v>-0.4314730480559723</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1729508639172331</v>
+        <v>-0.2040758354046817</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.01612374834115506</v>
+        <v>0.03304486077597635</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>-8.483748960364428</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.1434816148610851</v>
+        <v>-0.1434816148610879</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-10.70552591093109</v>
+        <v>-10.6746879066098</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.605340711412828</v>
+        <v>-2.506753168204754</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-6.263733565204782</v>
+        <v>-6.174772750535817</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.449997170356633</v>
+        <v>2.14867930848002</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>-0.3545255009776929</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.005995921334703132</v>
+        <v>-0.005995921334703248</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4243622802818044</v>
+        <v>-0.4228024791802364</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1027600164876079</v>
+        <v>-0.1001668018664485</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.270119284060886</v>
+        <v>-0.2738412006477555</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1084806834063069</v>
+        <v>0.09451191061124201</v>
       </c>
     </row>
     <row r="46">
